--- a/src/test/java/excel/Core.xlsx
+++ b/src/test/java/excel/Core.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="16845" windowHeight="8340" tabRatio="680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="16845" windowHeight="8280" tabRatio="680" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="Register" sheetId="13" r:id="rId2"/>
-    <sheet name="Login" sheetId="8" r:id="rId3"/>
-    <sheet name="Logout" sheetId="2" r:id="rId4"/>
-    <sheet name="Keywords" sheetId="6" r:id="rId5"/>
-    <sheet name="TestSuites" sheetId="14" r:id="rId6"/>
-    <sheet name="RunMode" sheetId="15" r:id="rId7"/>
+    <sheet name="TestSuitesRunMode" sheetId="15" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId2"/>
+    <sheet name="Register" sheetId="13" r:id="rId3"/>
+    <sheet name="Login" sheetId="8" r:id="rId4"/>
+    <sheet name="Logout" sheetId="2" r:id="rId5"/>
+    <sheet name="Keywords" sheetId="6" r:id="rId6"/>
+    <sheet name="TestSuites" sheetId="14" r:id="rId7"/>
     <sheet name="UpdateUserDetails" sheetId="16" r:id="rId8"/>
+    <sheet name="Suite1" sheetId="17" r:id="rId9"/>
+    <sheet name="Suite2" sheetId="18" r:id="rId10"/>
+    <sheet name="Suite3" sheetId="19" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="136">
   <si>
     <t>TCID</t>
   </si>
@@ -50,9 +53,6 @@
     <t>TS04</t>
   </si>
   <si>
-    <t>waitfor</t>
-  </si>
-  <si>
     <t>typekeys</t>
   </si>
   <si>
@@ -146,9 +146,6 @@
     <t>verifyTextOnThePage</t>
   </si>
   <si>
-    <t>Verifies text on the page</t>
-  </si>
-  <si>
     <t>assertTrue</t>
   </si>
   <si>
@@ -429,6 +426,12 @@
   </si>
   <si>
     <t>error2</t>
+  </si>
+  <si>
+    <t>waitFor</t>
+  </si>
+  <si>
+    <t>Verify text on the page</t>
   </si>
 </sst>
 </file>
@@ -870,10 +873,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A16:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,57 +1088,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -977,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -986,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,26 +1193,26 @@
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
@@ -1027,31 +1220,31 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1059,150 +1252,150 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1210,11 +1403,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1233,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1242,13 +1435,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1256,26 +1449,26 @@
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
@@ -1283,134 +1476,134 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1420,12 +1613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1452,13 +1645,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,26 +1659,26 @@
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
@@ -1493,31 +1686,31 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,104 +1718,104 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1630,26 +1823,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="51" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,15 +1850,15 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,143 +1866,143 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
+      <c r="A12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,12 +2031,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+      <selection activeCell="A11" sqref="A11:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1862,19 +2055,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -1897,19 +2090,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1918,19 +2111,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1953,19 +2146,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1974,19 +2167,19 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,13 +2187,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -2009,19 +2202,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2030,19 +2223,19 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,13 +2243,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2068,66 +2261,6 @@
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2155,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -2164,13 +2297,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -2186,52 +2319,52 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2239,266 +2372,331 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
